--- a/Logs/Game_Details.xlsx
+++ b/Logs/Game_Details.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
   <si>
     <t>White</t>
   </si>
@@ -27,24 +27,6 @@
   </si>
   <si>
     <t>ee5</t>
-  </si>
-  <si>
-    <t>bb4</t>
-  </si>
-  <si>
-    <t>cc5</t>
-  </si>
-  <si>
-    <t>dd4</t>
-  </si>
-  <si>
-    <t>gg5</t>
-  </si>
-  <si>
-    <t>Raa3</t>
-  </si>
-  <si>
-    <t>hh5</t>
   </si>
   <si>
     <t>1/2</t>
@@ -383,7 +365,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -411,30 +393,6 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
